--- a/results/test10.adjetivos_enmascarados_otros.xlsx
+++ b/results/test10.adjetivos_enmascarados_otros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3049,6 +3049,2580 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>101</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9.204046364175156e-06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.791548493201844e-05</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>102</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.099522887670901e-05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.499919219189906e-06</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>103</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.108912980882451e-05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.245646389084868e-05</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>104</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.026596123665513e-06</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.52606122078214e-07</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>105</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0008771191933192313</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0001529244473204017</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>107</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.501653504325077e-05</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.787537985364906e-05</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>duro</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>dura</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>108</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.002252823440358e-05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.322720433767245e-07</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>sencillo</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>sencilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>109</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.177663489215774e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.281703245898825e-06</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>complejo</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>compleja</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>111</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.705010466146462e-09</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.254680691622269e-10</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>112</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8.253132932622975e-07</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.739431863574282e-07</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>114</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.081432742466859e-06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0001061811854015104</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>115</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.310777517777751e-06</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.025911387841916e-05</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>116</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0003671452286653221</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.015694010675361e-06</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>conocido</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>conocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>117</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7.08073343957949e-07</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8.232430559473869e-08</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>desconocido</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>desconocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>118</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.134399801434483e-05</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.308409537159605e-05</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>directo</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>120</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.903459870954975e-05</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.885630263132043e-05</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>antiguo</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>antigua</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>121</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.839232481870567e-07</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.927984041889431e-07</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>moderno</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>moderna</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>122</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.671432528382866e-06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.525570031750249e-06</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>124</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.876677174550423e-06</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.055966322383028e-06</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>126</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.582758886797819e-05</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9.44743151194416e-05</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>128</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6.961503095226362e-05</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.259117652807618e-06</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>seco</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>seca</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>129</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.1916169739834e-07</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6.790071171991485e-09</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>rubio</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>rubia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>130</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.262756536059896e-07</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.273929453622259e-07</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>moreno</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>morena</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>132</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.574078846213524e-07</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.17838572233353e-09</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>sucio</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>sucia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>133</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.131774408553611e-06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.064510755099946e-07</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>limpio</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>limpia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>135</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.78440742881503e-05</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.364635969977826e-05</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>137</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0001650564663577825</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.489161101328136e-08</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ancho</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>ancha</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>138</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.482740819014339e-09</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.215856637593049e-09</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>artístico</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>artística</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>140</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.746252917937511e-10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.038399227188847e-09</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>141</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.034393097957945e-07</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.690273521148811e-08</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>religioso</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>religiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>143</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.468717864052451e-07</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.132845899424865e-07</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>argentino</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>144</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.002585463225841522</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.594835161242372e-07</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>blanco</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>blanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>145</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.038862151858666e-07</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.034657135638554e-09</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>sincero</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>sincera</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>146</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.11153667603503e-07</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.201453048160772e-09</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>satisfecho</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>satisfecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>148</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.620317122316919e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8.529896149411798e-06</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>fino</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>fina</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>149</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.710835360630881e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.880809905851493e-06</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>estrecho</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>estrecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>150</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0001090760924853384</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.007558219134807587</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>151</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.207563160576797e-09</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.134365155257115e-10</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>frío</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>fría</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>155</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.009987588040530682</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8.567994882469065e-06</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>claro</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>clara</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>156</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.17539071808892e-08</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.230350800886299e-08</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>158</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.525775132904528e-07</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.038191607629415e-05</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>caro</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>cara</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>159</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.000150884035974741</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.376035227935063e-06</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>barato</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>barata</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>168</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.185197327588597e-11</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.483521025086759e-10</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>sólido</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>sólida</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>169</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.787829569366295e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.190578197769355e-05</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>172</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.293509871582501e-05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.237292117181823e-08</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>animado</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>animada</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>174</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.667780555995705e-07</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.965648754875815e-09</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>175</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.762904730640003e-06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.151434290136422e-07</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>178</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9.034959020937094e-07</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.853807809013233e-07</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>maduro</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>madura</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>181</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.661061469349079e-05</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.755677309731254e-06</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>bajo</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>182</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.409215201420011e-05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.361939004913438e-05</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>183</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.582758886797819e-05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.44743151194416e-05</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>184</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.225456509831531e-11</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.697841725689102e-10</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>pequeño</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>pequeña</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>186</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.514925654395483e-07</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.67413717836007e-08</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>bruto</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>bruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>188</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.511891686182935e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.861493213567883e-05</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>189</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.64978816666428e-09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.502205103700362e-08</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>redondo</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>redonda</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>190</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.376216459902935e-05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0004224216099828482</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>191</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.251143216807193e-10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.497859974415206e-10</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>192</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.578618456070217e-08</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.54859343537828e-06</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>193</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.180345965527522e-07</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.608007369213738e-05</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>194</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.198913992084272e-06</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0002772437583189458</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>195</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.334724200636629e-07</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.764660623848613e-06</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>196</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.614929588977247e-05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.421466322426568e-06</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>viejo</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>vieja</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>197</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.85725002666004e-05</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.196328523496049e-07</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>masivo</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>masiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>198</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0006208742270246148</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.460720224917168e-06</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>nuevo</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>nueva</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>199</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.563320413173642e-05</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.922433461411856e-05</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>200</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.343988120794393e-08</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.827390398531861e-08</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>secundario</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>secundaria</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test10.adjetivos_enmascarados_otros.xlsx
+++ b/results/test10.adjetivos_enmascarados_otros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5623,6 +5623,2580 @@
         </is>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>201</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.358372117010731e-07</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.122360621749976e-07</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>202</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.047681833682873e-07</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.408205775987881e-06</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>203</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.144294507568702e-06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.170730224155704e-06</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>204</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.217948124576651e-07</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.797779075081053e-07</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>205</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.507713242674072e-07</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.514691757620312e-05</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>207</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0002741831995081156</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.992029852881387e-07</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>duro</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>dura</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>208</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.210049029206857e-05</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.297109406550589e-06</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>sencillo</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>sencilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>209</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0001789239613572136</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.033723376371199e-06</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>complejo</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>compleja</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>211</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.313761099908106e-09</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.585396228331319e-09</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>212</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.129345790218395e-07</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.998313443138613e-07</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>214</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.009074821922695e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.521757037105999e-07</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>215</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.878353143387358e-06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.460994383251091e-07</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>216</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0002829685981851071</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.618913927359245e-07</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>conocido</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>conocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>217</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5.211603593124892e-07</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.025699880585762e-08</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>desconocido</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>desconocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>218</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3.87413729185937e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.356507254968164e-06</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>directo</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>220</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.139873165811878e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.521073272670037e-06</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>antiguo</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>antigua</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>221</v>
+      </c>
+      <c r="D150" t="n">
+        <v>7.043244920623692e-08</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.034344692702916e-09</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>moderno</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>moderna</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>222</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.555869837640785e-07</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.448881059535779e-05</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>224</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.528247250666027e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.401570663503662e-07</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>226</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.929845065111294e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.293443867529277e-05</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>228</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0001557106734253466</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.857856884475041e-07</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>seco</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>seca</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>229</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8.193262601707829e-08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.917796890881789e-11</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>rubio</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>rubia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>230</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.779586942367132e-08</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.33395303084194e-10</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>moreno</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>morena</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>232</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.811120166119508e-07</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.882693467791796e-08</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>sucio</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>sucia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>233</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.395398612658028e-06</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.008017976455449e-07</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>limpio</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>limpia</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>235</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.676654159789905e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.988602869270835e-06</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>237</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.488188566640019e-05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.554650434585028e-09</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>ancho</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>ancha</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>238</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.716149444774828e-09</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.597748067183602e-08</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>artístico</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>artística</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>240</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.193419388456078e-11</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.522908326696438e-09</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>241</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.453773160799756e-06</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.858133285599251e-08</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>religioso</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>religiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>243</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7.604622851431486e-07</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.961828695281838e-09</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>argentino</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>244</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0003213085874449462</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.440282155992463e-07</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>blanco</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>blanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>245</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.644171956944774e-07</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.57689754587409e-08</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>sincero</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>sincera</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>246</v>
+      </c>
+      <c r="D167" t="n">
+        <v>7.652324995888193e-09</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.498038221248166e-10</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>satisfecho</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>satisfecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>248</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.770270614542824e-06</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.297006403750856e-06</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>fino</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>fina</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>249</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.155261972802691e-05</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8.21990511212789e-08</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>estrecho</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>estrecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>250</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.570469860074809e-06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.990291704918491e-06</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>251</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.370309143933213e-10</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.39406583499202e-10</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>frío</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>fría</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>255</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.001309109502471983</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.180796845001169e-06</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>claro</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>clara</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>256</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.818578176937535e-09</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.406566085826455e-09</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>258</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.112265403615311e-06</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.413288714502414e-06</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>caro</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>cara</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>259</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.000152257620356977</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.081868745700376e-07</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>barato</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>barata</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>268</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9.880306989229481e-11</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.994477685229867e-07</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>sólido</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>sólida</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>269</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.637096102058422e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.269608669143054e-06</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>272</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.633748979656957e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.079997744568573e-07</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>animado</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>animada</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>274</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.344421083464113e-07</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.180422757433689e-10</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>275</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3.57175031240331e-06</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9.071974318430875e-07</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>278</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.323684500675881e-06</v>
+      </c>
+      <c r="E181" t="n">
+        <v>7.273553848108349e-08</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>maduro</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>madura</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>281</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.0001868723193183541</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9.579324000696943e-08</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>bajo</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>282</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3.614590696088271e-06</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.509373414090078e-08</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>283</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.929845065111294e-05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.293443867529277e-05</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>284</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3.065662446122275e-10</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.173040744401055e-11</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>pequeño</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>pequeña</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>286</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.19152218758245e-06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.669004211559468e-09</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>bruto</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>bruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>288</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.263426838704618e-05</v>
+      </c>
+      <c r="E187" t="n">
+        <v>7.80488335294649e-07</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>289</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.734936404318432e-06</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.096504246930976e-10</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>redondo</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>redonda</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>290</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.544972272124141e-06</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.822787402896211e-05</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>291</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.412135574087927e-10</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9.960093860783559e-10</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>292</v>
+      </c>
+      <c r="D191" t="n">
+        <v>6.304381372501666e-07</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.015986855345545e-07</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>293</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.297923063248163e-05</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.636530720996234e-07</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>294</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.719140891509596e-05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9.339179996459279e-06</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>295</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.414020390366204e-07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.835531975302729e-07</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>296</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.846562554419506e-06</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.160596028171312e-07</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>viejo</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>vieja</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>297</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0001025208475766703</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.956869498722426e-09</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>masivo</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>masiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>298</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.323207460605772e-06</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.319783950748388e-05</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>nuevo</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>nueva</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>299</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6.811187631683424e-06</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.879488420148846e-05</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>300</v>
+      </c>
+      <c r="D199" t="n">
+        <v>7.323945396819909e-07</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.930522763871068e-08</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>secundario</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>secundaria</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test10.adjetivos_enmascarados_otros.xlsx
+++ b/results/test10.adjetivos_enmascarados_otros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3049,6 +3049,5154 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>101</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9.204046364175156e-06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.791548493201844e-05</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>102</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.099522887670901e-05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.499919219189906e-06</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>103</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.108912980882451e-05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.245646389084868e-05</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>104</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.026596123665513e-06</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.52606122078214e-07</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>105</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0008771191933192313</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0001529244473204017</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>107</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.501653504325077e-05</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.787537985364906e-05</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>duro</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>dura</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>108</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.002252823440358e-05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.322720433767245e-07</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>sencillo</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>sencilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>109</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.177663489215774e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.281703245898825e-06</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>complejo</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>compleja</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>111</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.705010466146462e-09</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.254680691622269e-10</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>112</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8.253132932622975e-07</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.739431863574282e-07</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>114</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.081432742466859e-06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0001061811854015104</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>115</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.310777517777751e-06</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.025911387841916e-05</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>116</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0003671452286653221</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.015694010675361e-06</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>conocido</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>conocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>117</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7.08073343957949e-07</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8.232430559473869e-08</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>desconocido</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>desconocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>118</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.134399801434483e-05</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.308409537159605e-05</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>directo</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>120</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.903459870954975e-05</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.885630263132043e-05</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>antiguo</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>antigua</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>121</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.839232481870567e-07</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.927984041889431e-07</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>moderno</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>moderna</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>122</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.671432528382866e-06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.525570031750249e-06</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>124</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.876677174550423e-06</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.055966322383028e-06</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>126</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.582758886797819e-05</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9.44743151194416e-05</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>128</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6.961503095226362e-05</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.259117652807618e-06</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>seco</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>seca</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>129</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.1916169739834e-07</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6.790071171991485e-09</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>rubio</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>rubia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>130</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.262756536059896e-07</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.273929453622259e-07</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>moreno</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>morena</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>132</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.574078846213524e-07</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.17838572233353e-09</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>sucio</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>sucia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>133</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.131774408553611e-06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.064510755099946e-07</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>limpio</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>limpia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>135</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.78440742881503e-05</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.364635969977826e-05</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>137</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0001650564663577825</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.489161101328136e-08</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ancho</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>ancha</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>138</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.482740819014339e-09</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.215856637593049e-09</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>artístico</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>artística</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>140</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.746252917937511e-10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.038399227188847e-09</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>141</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.034393097957945e-07</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.690273521148811e-08</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>religioso</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>religiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>143</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.468717864052451e-07</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.132845899424865e-07</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>argentino</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>144</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.002585463225841522</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.594835161242372e-07</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>blanco</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>blanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>145</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.038862151858666e-07</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.034657135638554e-09</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>sincero</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>sincera</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>146</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.11153667603503e-07</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.201453048160772e-09</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>satisfecho</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>satisfecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>148</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.620317122316919e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8.529896149411798e-06</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>fino</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>fina</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>149</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.710835360630881e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.880809905851493e-06</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>estrecho</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>estrecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>150</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0001090760924853384</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.007558219134807587</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>151</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.207563160576797e-09</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.134365155257115e-10</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>frío</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>fría</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>155</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.009987588040530682</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8.567994882469065e-06</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>claro</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>clara</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>156</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.17539071808892e-08</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.230350800886299e-08</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>158</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.525775132904528e-07</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.038191607629415e-05</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>caro</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>cara</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>159</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.000150884035974741</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.376035227935063e-06</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>barato</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>barata</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>168</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.185197327588597e-11</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.483521025086759e-10</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>sólido</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>sólida</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>169</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.787829569366295e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.190578197769355e-05</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>172</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.293509871582501e-05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.237292117181823e-08</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>animado</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>animada</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>174</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.667780555995705e-07</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.965648754875815e-09</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>175</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.762904730640003e-06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.151434290136422e-07</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>178</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9.034959020937094e-07</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.853807809013233e-07</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>maduro</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>madura</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>181</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.661061469349079e-05</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.755677309731254e-06</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>bajo</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>182</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.409215201420011e-05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.361939004913438e-05</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>183</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.582758886797819e-05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.44743151194416e-05</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>184</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.225456509831531e-11</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.697841725689102e-10</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>pequeño</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>pequeña</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>186</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.514925654395483e-07</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.67413717836007e-08</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>bruto</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>bruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>188</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.511891686182935e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.861493213567883e-05</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>189</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.64978816666428e-09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.502205103700362e-08</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>redondo</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>redonda</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>190</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.376216459902935e-05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0004224216099828482</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>191</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.251143216807193e-10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.497859974415206e-10</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>192</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.578618456070217e-08</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.54859343537828e-06</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>193</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.180345965527522e-07</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.608007369213738e-05</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>194</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.198913992084272e-06</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0002772437583189458</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>195</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.334724200636629e-07</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.764660623848613e-06</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>196</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.614929588977247e-05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.421466322426568e-06</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>viejo</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>vieja</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>197</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.85725002666004e-05</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.196328523496049e-07</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>masivo</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>masiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>198</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0006208742270246148</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.460720224917168e-06</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>nuevo</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>nueva</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>199</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.563320413173642e-05</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.922433461411856e-05</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>200</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.343988120794393e-08</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.827390398531861e-08</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>secundario</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>secundaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>201</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.358372117010731e-07</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.036394314724021e-05</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>202</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.047681833682873e-07</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.077105692587793e-06</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>203</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.144294507568702e-06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>8.660955791128799e-05</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>204</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.217948124576651e-07</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7.540886144852266e-06</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>amarillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>205</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.507713242674072e-07</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.216294185724109e-05</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>207</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0002741831995081156</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.153119678245275e-06</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>duro</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>dura</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>208</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.210049029206857e-05</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.312415633947239e-06</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>sencillo</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>sencilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>209</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0001789239613572136</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.94917718344368e-06</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>complejo</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>compleja</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>211</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.313761099908106e-09</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.066025046014829e-08</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>212</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.129345790218395e-07</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.085439079901334e-08</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>naranja</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>214</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.009074821922695e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.637786226638127e-05</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>215</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.878353143387358e-06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.011141080198286e-06</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>menor</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>216</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0002829685981851071</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.61401615628165e-07</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>conocido</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>conocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>217</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5.211603593124892e-07</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.588751897292241e-07</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>desconocido</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>desconocida</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>218</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3.87413729185937e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.054373115039198e-05</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>directo</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>220</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.139873165811878e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8.872794410308416e-08</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>antiguo</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>antigua</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>221</v>
+      </c>
+      <c r="D150" t="n">
+        <v>7.043244920623692e-08</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.539904453951024e-10</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>moderno</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>moderna</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>222</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.555869837640785e-07</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.412582034594379e-05</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>224</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.528247250666027e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.005778689337603e-07</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>226</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.929845065111294e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.0001883355434983969</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>228</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0001557106734253466</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.137390512999218e-09</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>seco</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>seca</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>229</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8.193262601707829e-08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.361434960553083e-10</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>rubio</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>rubia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>230</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.779586942367132e-08</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.481500421287365e-09</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>moreno</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>morena</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>232</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.811120166119508e-07</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.113512282380213e-09</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>sucio</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>sucia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>233</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.395398612658028e-06</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.027418775056965e-10</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>limpio</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>limpia</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>235</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.676654159789905e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.312333162990399e-05</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>suave</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>237</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.488188566640019e-05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.152652373548335e-08</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>ancho</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>ancha</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>238</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.716149444774828e-09</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.715827029931006e-08</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>artístico</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>artística</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>240</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.193419388456078e-11</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.58986412713125e-09</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>agrícola</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>241</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.453773160799756e-06</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.40278055230192e-08</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>religioso</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>religiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>243</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7.604622851431486e-07</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.133322318798037e-08</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>argentino</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>244</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0003213085874449462</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.57462466177094e-07</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>blanco</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>blanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>245</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.644171956944774e-07</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8.988721766911567e-09</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>sincero</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>sincera</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>246</v>
+      </c>
+      <c r="D167" t="n">
+        <v>7.652324995888193e-09</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.6053195711917e-10</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>satisfecho</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>satisfecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>248</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.770270614542824e-06</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.150774207620998e-06</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>fino</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>fina</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>249</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.155261972802691e-05</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.083871055129748e-07</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>estrecho</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>estrecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>250</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.570469860074809e-06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.003339941187733e-07</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>251</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.370309143933213e-10</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.027202655214722e-10</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>frío</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>fría</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>255</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.001309109502471983</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.286578592247679e-06</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>claro</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>clara</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>256</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.818578176937535e-09</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.677607273213425e-10</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>vigente</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>258</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.112265403615311e-06</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.782425094163045e-05</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>caro</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>cara</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>259</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.000152257620356977</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.464155552355351e-08</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>barato</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>barata</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>268</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9.880306989229481e-11</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.682467048487069e-08</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>sólido</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>sólida</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>269</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.637096102058422e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.005524831678485e-06</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>realista</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>272</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.633748979656957e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.120873077160468e-08</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>animado</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>animada</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>274</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.344421083464113e-07</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.841631025456536e-08</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>275</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3.57175031240331e-06</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9.563140338286757e-06</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>278</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.323684500675881e-06</v>
+      </c>
+      <c r="E181" t="n">
+        <v>7.547155860265775e-07</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>maduro</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>madura</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>281</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.0001868723193183541</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.299641804233033e-08</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>bajo</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>282</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3.614590696088271e-06</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9.810559475909031e-08</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>283</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.929845065111294e-05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.0001883355434983969</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>284</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3.065662446122275e-10</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.894108008799634e-10</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>pequeño</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>pequeña</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>286</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.19152218758245e-06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.998045533000095e-09</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>bruto</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>bruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>288</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.263426838704618e-05</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5.65439165711723e-07</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>gigante</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>289</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.734936404318432e-06</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.750731973426127e-09</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>redondo</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>redonda</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>290</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.544972272124141e-06</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5.565346327784937e-06</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>291</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.412135574087927e-10</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.213335210081823e-09</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>común</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>292</v>
+      </c>
+      <c r="D191" t="n">
+        <v>6.304381372501666e-07</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.475874134688638e-05</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>diferente</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>293</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.297923063248163e-05</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.832252893218538e-06</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>exterior</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>294</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.719140891509596e-05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.319664392620325e-05</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>295</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.414020390366204e-07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.057081817634753e-06</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>joven</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>296</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.846562554419506e-06</v>
+      </c>
+      <c r="E195" t="n">
+        <v>7.708030835829049e-08</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>viejo</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>vieja</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>297</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0001025208475766703</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.441918584532687e-09</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>masivo</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>masiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>298</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.323207460605772e-06</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9.927718025437571e-08</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>nuevo</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>nueva</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>299</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6.811187631683424e-06</v>
+      </c>
+      <c r="E198" t="n">
+        <v>8.676659490447491e-06</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>300</v>
+      </c>
+      <c r="D199" t="n">
+        <v>7.323945396819909e-07</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.210326309816992e-09</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>secundario</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>secundaria</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
